--- a/biology/Histoire de la zoologie et de la botanique/Oswald_Heer/Oswald_Heer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Oswald_Heer/Oswald_Heer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oswald Heer (31 août 1809-27 septembre 1883), est un géologue et naturaliste suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Niederuzwil dans le canton de Saint-Gall. Il reçoit une éducation religieuse et entre dans les ordres, puis il obtient son doctorat en philosophie et en médecine. Il s'intéresse tôt à l'entomologie et plus tard à l'étude des plantes. Il est un des pionniers de la paléobotanique, sujet sur lequel il se distingue par ses recherches sur la flore du Miocène.
 En 1851 il devient professeur de botanique à l'université de Zurich et s'oriente vers l'étude des plantes et les insectes du Tertiaire en Suisse. Il publie à cette époque le Schweizerische Zeitschrift für Land und Gartenbau avec Eduard von Regel. En 1863, avec William Pengelly (1812-1894) il étudie les restes fossiles de plantes des dépôts de lignites de Bovey Tracey dans le Devonshire, les considérant comme faisant partie du Miocène. Ils sont classés de nos jours dans l'Éocène.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flora Tertiaria Helvetiae 3 volumes 1855-1859
 Die Urwelt der Schweiz 1865
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) « Oswald Heer », dans Encyclopædia Britannica [détail de l’édition], 1911 (lire sur Wikisource).</t>
         </is>
